--- a/I BSC (CY) with Reg.No.xlsx
+++ b/I BSC (CY) with Reg.No.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ANANTHAPURAM LAKSHMI NAGA DIVIJA</t>
   </si>
@@ -87,9 +87,6 @@
     <t>DASS PRAKASH T</t>
   </si>
   <si>
-    <t>HARINI G</t>
-  </si>
-  <si>
     <t>MOHAMMAD MABRUR M</t>
   </si>
   <si>
@@ -108,12 +105,6 @@
     <t>VAISHNAVI M</t>
   </si>
   <si>
-    <t>WD - Remove</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -124,6 +115,12 @@
   </si>
   <si>
     <t>WD</t>
+  </si>
+  <si>
+    <t>NITHISH KUMAR G</t>
+  </si>
+  <si>
+    <t>HARINI G - withdraw</t>
   </si>
 </sst>
 </file>
@@ -707,27 +704,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1058,29 +1035,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,10 +1112,10 @@
         <v>112514005</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,7 +1159,7 @@
         <v>112514009</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,7 +1214,7 @@
         <v>112514014</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,7 +1236,7 @@
         <v>112514016</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1258,7 @@
         <v>112514018</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1303,7 +1280,7 @@
         <v>112514020</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,7 +1302,7 @@
         <v>112514022</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,99 +1331,71 @@
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6">
+        <v>112514025</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6">
+        <v>112514026</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>112514027</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6">
+        <v>112514028</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
-        <v>112514005</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="2" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>29</v>
+      <c r="B30" s="6">
+        <v>112514029</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:C30">
+    <sortCondition ref="B2:B30"/>
+  </sortState>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C39">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>